--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Amelx-Lamp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H2">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I2">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J2">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.1210796181449</v>
+        <v>43.03826899999999</v>
       </c>
       <c r="N2">
-        <v>30.1210796181449</v>
+        <v>129.114807</v>
       </c>
       <c r="O2">
-        <v>0.03510192247151645</v>
+        <v>0.04726885460128488</v>
       </c>
       <c r="P2">
-        <v>0.03510192247151645</v>
+        <v>0.04726885460128489</v>
       </c>
       <c r="Q2">
-        <v>19.41946076080039</v>
+        <v>29.20209674444532</v>
       </c>
       <c r="R2">
-        <v>19.41946076080039</v>
+        <v>262.8188707000079</v>
       </c>
       <c r="S2">
-        <v>0.0191143746627699</v>
+        <v>0.02492915379409118</v>
       </c>
       <c r="T2">
-        <v>0.0191143746627699</v>
+        <v>0.02492915379409119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H3">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I3">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J3">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>95.08343012546089</v>
+        <v>95.32850133333334</v>
       </c>
       <c r="N3">
-        <v>95.08343012546089</v>
+        <v>285.985504</v>
       </c>
       <c r="O3">
-        <v>0.1108064928250184</v>
+        <v>0.1046991241419056</v>
       </c>
       <c r="P3">
-        <v>0.1108064928250184</v>
+        <v>0.1046991241419056</v>
       </c>
       <c r="Q3">
-        <v>61.30155239227822</v>
+        <v>64.68178630601955</v>
       </c>
       <c r="R3">
-        <v>61.30155239227822</v>
+        <v>582.136076754176</v>
       </c>
       <c r="S3">
-        <v>0.06033848489761721</v>
+        <v>0.05521734321375456</v>
       </c>
       <c r="T3">
-        <v>0.06033848489761721</v>
+        <v>0.05521734321375458</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H4">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I4">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J4">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>204.577965299484</v>
+        <v>224.8701733333334</v>
       </c>
       <c r="N4">
-        <v>204.577965299484</v>
+        <v>674.6105200000001</v>
       </c>
       <c r="O4">
-        <v>0.2384071211377562</v>
+        <v>0.2469745130190776</v>
       </c>
       <c r="P4">
-        <v>0.2384071211377562</v>
+        <v>0.2469745130190776</v>
       </c>
       <c r="Q4">
-        <v>131.8941359347726</v>
+        <v>152.5777107025422</v>
       </c>
       <c r="R4">
-        <v>131.8941359347726</v>
+        <v>1373.19939632288</v>
       </c>
       <c r="S4">
-        <v>0.1298220357986727</v>
+        <v>0.1302520585744424</v>
       </c>
       <c r="T4">
-        <v>0.1298220357986727</v>
+        <v>0.1302520585744425</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H5">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I5">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J5">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>237.862304151005</v>
+        <v>239.425644</v>
       </c>
       <c r="N5">
-        <v>237.862304151005</v>
+        <v>718.276932</v>
       </c>
       <c r="O5">
-        <v>0.2771953816082728</v>
+        <v>0.2629607606675584</v>
       </c>
       <c r="P5">
-        <v>0.2771953816082728</v>
+        <v>0.2629607606675584</v>
       </c>
       <c r="Q5">
-        <v>153.352992007346</v>
+        <v>162.453811030112</v>
       </c>
       <c r="R5">
-        <v>153.352992007346</v>
+        <v>1462.084299271008</v>
       </c>
       <c r="S5">
-        <v>0.150943766203957</v>
+        <v>0.1386830567355143</v>
       </c>
       <c r="T5">
-        <v>0.150943766203957</v>
+        <v>0.1386830567355143</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H6">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I6">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J6">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>231.820569974908</v>
+        <v>236.383077</v>
       </c>
       <c r="N6">
-        <v>231.820569974908</v>
+        <v>709.1492310000001</v>
       </c>
       <c r="O6">
-        <v>0.2701545820309856</v>
+        <v>0.2596191147213038</v>
       </c>
       <c r="P6">
-        <v>0.2701545820309856</v>
+        <v>0.2596191147213038</v>
       </c>
       <c r="Q6">
-        <v>149.4578056047569</v>
+        <v>160.389384696296</v>
       </c>
       <c r="R6">
-        <v>149.4578056047569</v>
+        <v>1443.504462266664</v>
       </c>
       <c r="S6">
-        <v>0.1471097744573527</v>
+        <v>0.1369207037776891</v>
       </c>
       <c r="T6">
-        <v>0.1471097744573527</v>
+        <v>0.1369207037776891</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.644713304004619</v>
+        <v>0.6785146666666666</v>
       </c>
       <c r="H7">
-        <v>0.644713304004619</v>
+        <v>2.035544</v>
       </c>
       <c r="I7">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508921</v>
       </c>
       <c r="J7">
-        <v>0.5445392536058477</v>
+        <v>0.5273906889508923</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.6380678898985</v>
+        <v>71.45384633333333</v>
       </c>
       <c r="N7">
-        <v>58.6380678898985</v>
+        <v>214.361539</v>
       </c>
       <c r="O7">
-        <v>0.0683344999264506</v>
+        <v>0.07847763284886962</v>
       </c>
       <c r="P7">
-        <v>0.0683344999264506</v>
+        <v>0.07847763284886962</v>
       </c>
       <c r="Q7">
-        <v>37.80474248974362</v>
+        <v>48.48248272691288</v>
       </c>
       <c r="R7">
-        <v>37.80474248974362</v>
+        <v>436.3423445422159</v>
       </c>
       <c r="S7">
-        <v>0.03721081758547826</v>
+        <v>0.04138837285540051</v>
       </c>
       <c r="T7">
-        <v>0.03721081758547826</v>
+        <v>0.04138837285540052</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H8">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I8">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J8">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.1210796181449</v>
+        <v>43.03826899999999</v>
       </c>
       <c r="N8">
-        <v>30.1210796181449</v>
+        <v>129.114807</v>
       </c>
       <c r="O8">
-        <v>0.03510192247151645</v>
+        <v>0.04726885460128488</v>
       </c>
       <c r="P8">
-        <v>0.03510192247151645</v>
+        <v>0.04726885460128489</v>
       </c>
       <c r="Q8">
-        <v>16.24272636750666</v>
+        <v>1.944167725537</v>
       </c>
       <c r="R8">
-        <v>16.24272636750666</v>
+        <v>17.497509529833</v>
       </c>
       <c r="S8">
-        <v>0.01598754780874655</v>
+        <v>0.00165969096861647</v>
       </c>
       <c r="T8">
-        <v>0.01598754780874655</v>
+        <v>0.00165969096861647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H9">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I9">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J9">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>95.08343012546089</v>
+        <v>95.32850133333334</v>
       </c>
       <c r="N9">
-        <v>95.08343012546089</v>
+        <v>285.985504</v>
       </c>
       <c r="O9">
-        <v>0.1108064928250184</v>
+        <v>0.1046991241419056</v>
       </c>
       <c r="P9">
-        <v>0.1108064928250184</v>
+        <v>0.1046991241419056</v>
       </c>
       <c r="Q9">
-        <v>51.27353193148652</v>
+        <v>4.306274390730667</v>
       </c>
       <c r="R9">
-        <v>51.27353193148652</v>
+        <v>38.756469516576</v>
       </c>
       <c r="S9">
-        <v>0.05046800792740114</v>
+        <v>0.003676166732325514</v>
       </c>
       <c r="T9">
-        <v>0.05046800792740114</v>
+        <v>0.003676166732325514</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H10">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I10">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J10">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>204.577965299484</v>
+        <v>224.8701733333334</v>
       </c>
       <c r="N10">
-        <v>204.577965299484</v>
+        <v>674.6105200000001</v>
       </c>
       <c r="O10">
-        <v>0.2384071211377562</v>
+        <v>0.2469745130190776</v>
       </c>
       <c r="P10">
-        <v>0.2384071211377562</v>
+        <v>0.2469745130190776</v>
       </c>
       <c r="Q10">
-        <v>110.3182207711797</v>
+        <v>10.15806033998667</v>
       </c>
       <c r="R10">
-        <v>110.3182207711797</v>
+        <v>91.42254305988001</v>
       </c>
       <c r="S10">
-        <v>0.1085850853390835</v>
+        <v>0.008671700894674774</v>
       </c>
       <c r="T10">
-        <v>0.1085850853390835</v>
+        <v>0.008671700894674774</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H11">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I11">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J11">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>237.862304151005</v>
+        <v>239.425644</v>
       </c>
       <c r="N11">
-        <v>237.862304151005</v>
+        <v>718.276932</v>
       </c>
       <c r="O11">
-        <v>0.2771953816082728</v>
+        <v>0.2629607606675584</v>
       </c>
       <c r="P11">
-        <v>0.2771953816082728</v>
+        <v>0.2629607606675584</v>
       </c>
       <c r="Q11">
-        <v>128.266727768351</v>
+        <v>10.815574616412</v>
       </c>
       <c r="R11">
-        <v>128.266727768351</v>
+        <v>97.340171547708</v>
       </c>
       <c r="S11">
-        <v>0.1262516154043158</v>
+        <v>0.009233005607218594</v>
       </c>
       <c r="T11">
-        <v>0.1262516154043158</v>
+        <v>0.009233005607218594</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1160,49 +1160,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.53924781493297</v>
+        <v>0.045173</v>
       </c>
       <c r="H12">
-        <v>0.53924781493297</v>
+        <v>0.135519</v>
       </c>
       <c r="I12">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="J12">
-        <v>0.4554607463941522</v>
+        <v>0.03511172383202523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>231.820569974908</v>
+        <v>236.383077</v>
       </c>
       <c r="N12">
-        <v>231.820569974908</v>
+        <v>709.1492310000001</v>
       </c>
       <c r="O12">
-        <v>0.2701545820309856</v>
+        <v>0.2596191147213038</v>
       </c>
       <c r="P12">
-        <v>0.2701545820309856</v>
+        <v>0.2596191147213038</v>
       </c>
       <c r="Q12">
-        <v>125.0087358154848</v>
+        <v>10.678132737321</v>
       </c>
       <c r="R12">
-        <v>125.0087358154848</v>
+        <v>96.10319463588901</v>
       </c>
       <c r="S12">
-        <v>0.1230448075736329</v>
+        <v>0.009115674657609296</v>
       </c>
       <c r="T12">
-        <v>0.1230448075736329</v>
+        <v>0.009115674657609294</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.045173</v>
+      </c>
+      <c r="H13">
+        <v>0.135519</v>
+      </c>
+      <c r="I13">
+        <v>0.03511172383202523</v>
+      </c>
+      <c r="J13">
+        <v>0.03511172383202523</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>71.45384633333333</v>
+      </c>
+      <c r="N13">
+        <v>214.361539</v>
+      </c>
+      <c r="O13">
+        <v>0.07847763284886962</v>
+      </c>
+      <c r="P13">
+        <v>0.07847763284886962</v>
+      </c>
+      <c r="Q13">
+        <v>3.227784600415666</v>
+      </c>
+      <c r="R13">
+        <v>29.050061403741</v>
+      </c>
+      <c r="S13">
+        <v>0.002755484971580581</v>
+      </c>
+      <c r="T13">
+        <v>0.002755484971580581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.688588</v>
+      </c>
+      <c r="I14">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J14">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>43.03826899999999</v>
+      </c>
+      <c r="N14">
+        <v>129.114807</v>
+      </c>
+      <c r="O14">
+        <v>0.04726885460128488</v>
+      </c>
+      <c r="P14">
+        <v>0.04726885460128489</v>
+      </c>
+      <c r="Q14">
+        <v>24.22463485805733</v>
+      </c>
+      <c r="R14">
+        <v>218.021713722516</v>
+      </c>
+      <c r="S14">
+        <v>0.02068000983857723</v>
+      </c>
+      <c r="T14">
+        <v>0.02068000983857723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.688588</v>
+      </c>
+      <c r="I15">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J15">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>95.32850133333334</v>
+      </c>
+      <c r="N15">
+        <v>285.985504</v>
+      </c>
+      <c r="O15">
+        <v>0.1046991241419056</v>
+      </c>
+      <c r="P15">
+        <v>0.1046991241419056</v>
+      </c>
+      <c r="Q15">
+        <v>53.65685446981689</v>
+      </c>
+      <c r="R15">
+        <v>482.9116902283519</v>
+      </c>
+      <c r="S15">
+        <v>0.04580561419582549</v>
+      </c>
+      <c r="T15">
+        <v>0.04580561419582549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.688588</v>
+      </c>
+      <c r="I16">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J16">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>224.8701733333334</v>
+      </c>
+      <c r="N16">
+        <v>674.6105200000001</v>
+      </c>
+      <c r="O16">
+        <v>0.2469745130190776</v>
+      </c>
+      <c r="P16">
+        <v>0.2469745130190776</v>
+      </c>
+      <c r="Q16">
+        <v>126.5710254161956</v>
+      </c>
+      <c r="R16">
+        <v>1139.13922874576</v>
+      </c>
+      <c r="S16">
+        <v>0.1080507535499604</v>
+      </c>
+      <c r="T16">
+        <v>0.1080507535499604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.53924781493297</v>
-      </c>
-      <c r="H13">
-        <v>0.53924781493297</v>
-      </c>
-      <c r="I13">
-        <v>0.4554607463941522</v>
-      </c>
-      <c r="J13">
-        <v>0.4554607463941522</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>58.6380678898985</v>
-      </c>
-      <c r="N13">
-        <v>58.6380678898985</v>
-      </c>
-      <c r="O13">
-        <v>0.0683344999264506</v>
-      </c>
-      <c r="P13">
-        <v>0.0683344999264506</v>
-      </c>
-      <c r="Q13">
-        <v>31.62044998151892</v>
-      </c>
-      <c r="R13">
-        <v>31.62044998151892</v>
-      </c>
-      <c r="S13">
-        <v>0.03112368234097233</v>
-      </c>
-      <c r="T13">
-        <v>0.03112368234097233</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.688588</v>
+      </c>
+      <c r="I17">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J17">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>239.425644</v>
+      </c>
+      <c r="N17">
+        <v>718.276932</v>
+      </c>
+      <c r="O17">
+        <v>0.2629607606675584</v>
+      </c>
+      <c r="P17">
+        <v>0.2629607606675584</v>
+      </c>
+      <c r="Q17">
+        <v>134.763756450224</v>
+      </c>
+      <c r="R17">
+        <v>1212.873808052016</v>
+      </c>
+      <c r="S17">
+        <v>0.1150446983248255</v>
+      </c>
+      <c r="T17">
+        <v>0.1150446983248255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.688588</v>
+      </c>
+      <c r="I18">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J18">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>236.383077</v>
+      </c>
+      <c r="N18">
+        <v>709.1492310000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2596191147213038</v>
+      </c>
+      <c r="P18">
+        <v>0.2596191147213038</v>
+      </c>
+      <c r="Q18">
+        <v>133.051209075092</v>
+      </c>
+      <c r="R18">
+        <v>1197.460881675828</v>
+      </c>
+      <c r="S18">
+        <v>0.1135827362860054</v>
+      </c>
+      <c r="T18">
+        <v>0.1135827362860054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.5628626666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.688588</v>
+      </c>
+      <c r="I19">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="J19">
+        <v>0.4374975872170826</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>71.45384633333333</v>
+      </c>
+      <c r="N19">
+        <v>214.361539</v>
+      </c>
+      <c r="O19">
+        <v>0.07847763284886962</v>
+      </c>
+      <c r="P19">
+        <v>0.07847763284886962</v>
+      </c>
+      <c r="Q19">
+        <v>40.21870249077022</v>
+      </c>
+      <c r="R19">
+        <v>361.9683224169319</v>
+      </c>
+      <c r="S19">
+        <v>0.03433377502188852</v>
+      </c>
+      <c r="T19">
+        <v>0.03433377502188852</v>
       </c>
     </row>
   </sheetData>
